--- a/data/todolist/Dua.xlsx
+++ b/data/todolist/Dua.xlsx
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
